--- a/lowiga_db/Excels_Old/User1.xlsx
+++ b/lowiga_db/Excels_Old/User1.xlsx
@@ -5,29 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/Python/LogiwaDB/lowiga_db/Excels_Old/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/Python/LogiwaDB/lowiga_db/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316405B9-058E-AC45-B9E3-49C7FEDEFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856F8A3-2729-654C-AE44-83E6DFFE4C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="760" windowWidth="28580" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2NwBHXK8kItoJ1A30QCnFrt6dDsX7X5TN5f+vCuvpTk="/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="198">
   <si>
     <t>username</t>
   </si>
@@ -630,217 +619,13 @@
   </si>
   <si>
     <t>Krystal - Accent Group</t>
-  </si>
-  <si>
-    <t>acaminos@the5411.com</t>
-  </si>
-  <si>
-    <t>cserenelli@the5411.com</t>
-  </si>
-  <si>
-    <t>conigb@the5411.com</t>
-  </si>
-  <si>
-    <t>ecanzani@the5411.com</t>
-  </si>
-  <si>
-    <t>apacho@the5411.com</t>
-  </si>
-  <si>
-    <t>ssegura@the5411.com</t>
-  </si>
-  <si>
-    <t>csobral@the5411.com</t>
-  </si>
-  <si>
-    <t>vdeurquiza@the5411.com</t>
-  </si>
-  <si>
-    <t>mcristeche@the5411.com</t>
-  </si>
-  <si>
-    <t>mkrestol@the5411.com</t>
-  </si>
-  <si>
-    <t>aarguello@the5411.com</t>
-  </si>
-  <si>
-    <t>erojas@the5411.com</t>
-  </si>
-  <si>
-    <t>faguirre@the5411.com</t>
-  </si>
-  <si>
-    <t>lirazusta@the5411.com</t>
-  </si>
-  <si>
-    <t>lnanclares@the5411.com</t>
-  </si>
-  <si>
-    <t>sbravo@the5411.com</t>
-  </si>
-  <si>
-    <t>merceditaromero@gmail.com</t>
-  </si>
-  <si>
-    <t>mvillegas@the5411.com</t>
-  </si>
-  <si>
-    <t>mmondolo@the5411.com</t>
-  </si>
-  <si>
-    <t>smurature@the5411.com</t>
-  </si>
-  <si>
-    <t>lsanchez@the5411.com</t>
-  </si>
-  <si>
-    <t>lfeit@the5411.com</t>
-  </si>
-  <si>
-    <t>alexmata2173@gmail.com</t>
-  </si>
-  <si>
-    <t>rebecariera23@gmail.com</t>
-  </si>
-  <si>
-    <t>aaranda@the5411.com</t>
-  </si>
-  <si>
-    <t>fluna@the5411.com</t>
-  </si>
-  <si>
-    <t>ewinter@the5411.com</t>
-  </si>
-  <si>
-    <t>aprobledofarina@the5411.com</t>
-  </si>
-  <si>
-    <t>tandres@the5411.com</t>
-  </si>
-  <si>
-    <t>mendezelisabeth84@gmail.com</t>
-  </si>
-  <si>
-    <t>mcastiglione@the5411.com</t>
-  </si>
-  <si>
-    <t>anailiek9@gmail.com</t>
-  </si>
-  <si>
-    <t>dpereira@the5411.com</t>
-  </si>
-  <si>
-    <t>lalezkaara12@gmail.com</t>
-  </si>
-  <si>
-    <t>Agustina Caminos</t>
-  </si>
-  <si>
-    <t>Cata Serenelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coni </t>
-  </si>
-  <si>
-    <t>Euge Canzani</t>
-  </si>
-  <si>
-    <t>A Pacho</t>
-  </si>
-  <si>
-    <t>Sofi Segura</t>
-  </si>
-  <si>
-    <t>Clara Sobral</t>
-  </si>
-  <si>
-    <t>Valentina Urquiza</t>
-  </si>
-  <si>
-    <t>M Cristeche</t>
-  </si>
-  <si>
-    <t>M Krestol</t>
-  </si>
-  <si>
-    <t>A Arguello</t>
-  </si>
-  <si>
-    <t>Emilia Rojas</t>
-  </si>
-  <si>
-    <t>Anto Aguirre</t>
-  </si>
-  <si>
-    <t>L Irazusta</t>
-  </si>
-  <si>
-    <t>L Nanclares</t>
-  </si>
-  <si>
-    <t>Sofia Bravo</t>
-  </si>
-  <si>
-    <t>Mercedes Romero</t>
-  </si>
-  <si>
-    <t>M Villegas</t>
-  </si>
-  <si>
-    <t>Mara Mondolo</t>
-  </si>
-  <si>
-    <t>Sofi Murature</t>
-  </si>
-  <si>
-    <t>I Sanchez</t>
-  </si>
-  <si>
-    <t>Luna Feit</t>
-  </si>
-  <si>
-    <t>Alex Mata</t>
-  </si>
-  <si>
-    <t>Rebe Cariera</t>
-  </si>
-  <si>
-    <t>Anabel Aranda</t>
-  </si>
-  <si>
-    <t>Felicitas Luna</t>
-  </si>
-  <si>
-    <t>Eli Winter</t>
-  </si>
-  <si>
-    <t>Ana Robledo</t>
-  </si>
-  <si>
-    <t>Trinidad Andres</t>
-  </si>
-  <si>
-    <t>Eli Mendez</t>
-  </si>
-  <si>
-    <t>Mateo Castiglione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anali </t>
-  </si>
-  <si>
-    <t>D Pereira</t>
-  </si>
-  <si>
-    <t>Lalezka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -860,21 +645,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -893,26 +663,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1240,7 +1001,7 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3349,802 +3110,54 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-      <c r="G114" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" t="b">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128" t="b">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5001,11 +4014,6 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{CD781471-C662-1743-BBB1-93E20956CAB7}"/>
-    <hyperlink ref="A97" r:id="rId2" xr:uid="{4D91DC8F-FBE0-0945-AF5F-D94054274D68}"/>
-    <hyperlink ref="C97" r:id="rId3" xr:uid="{933DF9F5-F1E4-7341-8841-D4E1D06E5DB4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
